--- a/biology/Médecine/Antoine_Chevrier_(1862-1920)/Antoine_Chevrier_(1862-1920).xlsx
+++ b/biology/Médecine/Antoine_Chevrier_(1862-1920)/Antoine_Chevrier_(1862-1920).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Chevrier est un médecin français, né à Satolas le 10 septembre 1862 et mort à Reims le 28 octobre 1920.
 </t>
@@ -511,16 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Marie Antoine Chevrier, fils de Jean Baptiste Chevrier instituteur communal et de  Marie FAVRE , est né à Satolas (Isère) le 10 septembre 1862, et est décédé à Reims, le 28 octobre 1920[1]. 
-Il est mort célibataire et repose au Cimetière du Sud[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Marie Antoine Chevrier, fils de Jean Baptiste Chevrier instituteur communal et de  Marie FAVRE , est né à Satolas (Isère) le 10 septembre 1862, et est décédé à Reims, le 28 octobre 1920. 
+Il est mort célibataire et repose au Cimetière du Sud.
 Il est le frère du négociant en vins de Champagne Paul Chevrier (1863-1957).
-Médecin
-Antoine Chevrier, devient docteur en médecine en 1890, vint aussitôt se fixer à Reims. Il a été membre de la Commission sanitaire de l’arrondissement de Reims, administrateur des hospices et médecin-major de la compagnie des Sapeurs-pompiers.
-Politique
-En 1912, il est élu conseiller municipal à Reims. Il est réélu après la guerre, en novembre 1919. 
-Il a été président de la Société des Sauveteurs qui deviendra la Compagnie de sauveteurs de Reims et président de la Ligue de l'enseignement[3].
 </t>
         </is>
       </c>
@@ -546,10 +555,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Médecin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Chevrier, devient docteur en médecine en 1890, vint aussitôt se fixer à Reims. Il a été membre de la Commission sanitaire de l’arrondissement de Reims, administrateur des hospices et médecin-major de la compagnie des Sapeurs-pompiers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Antoine_Chevrier_(1862-1920)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Chevrier_(1862-1920)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1912, il est élu conseiller municipal à Reims. Il est réélu après la guerre, en novembre 1919. 
+Il a été président de la Société des Sauveteurs qui deviendra la Compagnie de sauveteurs de Reims et président de la Ligue de l'enseignement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antoine_Chevrier_(1862-1920)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Chevrier_(1862-1920)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1927, la place du marché Saint-André est rebaptisée en son honneur en place du docteur Chevrier. Un square a également été baptisé « Square du Docteur Chevrier ».
 </t>
